--- a/2eme/Technologie des composants des micro-ordinateurs/QCM_TCE_2018.xlsx
+++ b/2eme/Technologie des composants des micro-ordinateurs/QCM_TCE_2018.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://helha-my.sharepoint.com/personal/vanderhaegens_helha_be/Documents/Cours/2emes/TCE/Evaluations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C39DBD0-B0B5-4FC8-B3A3-6EA6B687FD84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49F28B81-25FF-4FF9-80B1-1A2FDFDA031D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" firstSheet="1" xr2:uid="{1ACFE0EE-95E4-40B2-9256-3F4C5CA34376}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11715" xr2:uid="{1ACFE0EE-95E4-40B2-9256-3F4C5CA34376}"/>
   </bookViews>
   <sheets>
-    <sheet name="QCM Imprimente" sheetId="1" r:id="rId1"/>
+    <sheet name="QCM Imprimante" sheetId="1" r:id="rId1"/>
     <sheet name="QCM Disque Optique" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="362">
   <si>
     <t xml:space="preserve">ILazer </t>
   </si>
@@ -156,7 +156,7 @@
     <t xml:space="preserve"> moins de vitesse d'impression </t>
   </si>
   <si>
-    <t xml:space="preserve"> moins distance de jet optimale </t>
+    <t> moins de distance de jet optimale </t>
   </si>
   <si>
     <t xml:space="preserve"> aucun des 2</t>
@@ -246,7 +246,7 @@
     <t xml:space="preserve"> un fil CORONA et des ions</t>
   </si>
   <si>
-    <t xml:space="preserve">Quel sont les 2 technologies utilisées dans le le procédé de goutte à la demande (drop on demand (DOD)) ? . </t>
+    <t>Quel sont les 2 technologies utilisées dans le le procédé de goutte à la demande (drop on demand (DOD)) ? . </t>
   </si>
   <si>
     <t>piézo-électrique et le thermique</t>
@@ -540,6 +540,9 @@
     <t xml:space="preserve"> À vérifier la qualité de l'impression</t>
   </si>
   <si>
+    <t>dirige le rayon laser sur toute la largeur du tambour</t>
+  </si>
+  <si>
     <t xml:space="preserve"> À voir si on est beau </t>
   </si>
   <si>
@@ -861,9 +864,6 @@
     <t>De la capacité de stockage.</t>
   </si>
   <si>
-    <t>o</t>
-  </si>
-  <si>
     <t>Qu'elle est la différence entre une diode bleue et une diode rouge ?</t>
   </si>
   <si>
@@ -874,12 +874,6 @@
   </si>
   <si>
     <t>la diode bleue est moins chers que la rouge.</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Nique ta mère</t>
   </si>
   <si>
     <t xml:space="preserve">DUELZ François </t>
@@ -1216,7 +1210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1262,6 +1256,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1578,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65729CDA-705F-47A2-859A-844782A64618}">
   <dimension ref="A3:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0" xr3:uid="{25390116-46C3-5F9F-A3A6-C609753B98C5}">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0" xr3:uid="{25390116-46C3-5F9F-A3A6-C609753B98C5}">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2164,7 +2161,7 @@
       <c r="D31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="5" t="s">
         <v>133</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -2181,7 +2178,7 @@
       <c r="C32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -2201,7 +2198,7 @@
       <c r="C33" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -2224,7 +2221,7 @@
       <c r="D34" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="5" t="s">
         <v>144</v>
       </c>
       <c r="F34" s="2">
@@ -2331,7 +2328,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30">
+    <row r="40" spans="1:6" ht="45">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -2344,9 +2341,11 @@
       <c r="D40" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30">
@@ -2354,19 +2353,19 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="45">
@@ -2374,19 +2373,19 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30">
@@ -2394,19 +2393,19 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E43" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="E43" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="F43" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="45">
@@ -2414,19 +2413,19 @@
         <v>98</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D44" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="D44" s="5" t="s">
+        <v>186</v>
+      </c>
       <c r="E44" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="30">
@@ -2434,19 +2433,19 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E45" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="E45" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="F45" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2454,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F46" s="2" t="s">
         <v>196</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="75">
@@ -2474,19 +2473,19 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="45">
@@ -2494,19 +2493,19 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30">
@@ -2514,39 +2513,39 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="45">
       <c r="A50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B50" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="30">
@@ -2554,19 +2553,19 @@
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2574,19 +2573,19 @@
         <v>103</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="30">
@@ -2594,19 +2593,19 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="90">
@@ -2614,19 +2613,19 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="30">
@@ -2634,19 +2633,19 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D55" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="D55" s="5" t="s">
         <v>237</v>
       </c>
+      <c r="E55" s="17" t="s">
+        <v>238</v>
+      </c>
       <c r="F55" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="30">
@@ -2654,19 +2653,19 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="F56" s="2" t="s">
         <v>242</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2710,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28BDFCA-D1DE-4AFF-87F9-BC86C4893636}">
   <dimension ref="A3:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{7D6132A2-C1D8-5969-969F-A72C665DF700}">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="C27" workbookViewId="0" xr3:uid="{7D6132A2-C1D8-5969-969F-A72C665DF700}">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2725,42 +2724,42 @@
   <sheetData>
     <row r="3" spans="1:15" ht="45">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="30">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -2772,22 +2771,22 @@
     </row>
     <row r="5" spans="1:15" ht="60">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -2799,22 +2798,22 @@
     </row>
     <row r="6" spans="1:15" ht="30">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -2826,22 +2825,22 @@
     </row>
     <row r="7" spans="1:15" ht="60">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F7" s="1" t="s">
         <v>267</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
@@ -2853,16 +2852,16 @@
     </row>
     <row r="8" spans="1:15" ht="30">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E8" s="4">
         <v>4</v>
@@ -2880,27 +2879,25 @@
     </row>
     <row r="9" spans="1:15" ht="60">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I9" s="13"/>
-      <c r="J9" s="16" t="s">
-        <v>276</v>
-      </c>
+      <c r="J9" s="16"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -2909,10 +2906,10 @@
     </row>
     <row r="10" spans="1:15" ht="45">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>277</v>
@@ -2927,12 +2924,8 @@
         <v>280</v>
       </c>
       <c r="I10" s="13"/>
-      <c r="J10" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>282</v>
-      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="13"/>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
@@ -2940,27 +2933,25 @@
     </row>
     <row r="11" spans="1:15" ht="30">
       <c r="A11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E11" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="I11" s="13"/>
-      <c r="J11" s="16" t="s">
-        <v>276</v>
-      </c>
+      <c r="J11" s="16"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
@@ -2969,22 +2960,22 @@
     </row>
     <row r="12" spans="1:15" ht="30">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="F12" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
@@ -2996,302 +2987,302 @@
     </row>
     <row r="13" spans="1:15" ht="45">
       <c r="A13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B13" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F13" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="45">
       <c r="A14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="F14" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="F15" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="30">
       <c r="A16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="F16" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="9" t="s">
         <v>312</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30">
       <c r="A18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="60">
       <c r="A19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30">
       <c r="A20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="30">
       <c r="A21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="F21" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="30">
       <c r="A22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s">
+        <v>332</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="F22" s="10" t="s">
         <v>336</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B23" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="F23" s="10" t="s">
         <v>340</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30">
       <c r="A24" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B24" t="s">
+      <c r="D24" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="10" t="s">
         <v>346</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="45">
       <c r="A25" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="F25" s="10" t="s">
         <v>350</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30">
       <c r="A26" t="s">
+        <v>351</v>
+      </c>
+      <c r="B26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="F26" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="45">
       <c r="A27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s">
+        <v>357</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="F27" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
   </sheetData>
